--- a/A5/RPCCalcs.xlsx
+++ b/A5/RPCCalcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gavin\Dev\distSys\A4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gavin\Dev\distSys\A5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6312FDCD-07C2-4163-9FDF-B4C4D64C43E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7492674D-8AAE-4A6A-9DBA-CF43D5E74FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9810" yWindow="795" windowWidth="19980" windowHeight="11235" xr2:uid="{EEBA9540-63C0-46A5-AE4A-691EFB1D9DF7}"/>
+    <workbookView xWindow="16065" yWindow="3555" windowWidth="7905" windowHeight="11235" xr2:uid="{EEBA9540-63C0-46A5-AE4A-691EFB1D9DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E694DB6-84C1-4FF6-8908-D93521A7A207}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -427,114 +427,128 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>971.422099437876</v>
+        <v>137.910156858524</v>
       </c>
       <c r="B2">
-        <v>4810.5516943605699</v>
+        <v>4557.7949997594596</v>
       </c>
       <c r="C2">
-        <v>202.620925662622</v>
+        <v>424.477630471596</v>
       </c>
       <c r="D2">
-        <v>964.15894783095803</v>
+        <v>210.85766537725999</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUM(A2:A7)</f>
-        <v>5473.4079085306112</v>
+        <f>SUM(A2:A8)</f>
+        <v>857.56027835669806</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>885.88716534249602</v>
+        <v>134.820923369562</v>
       </c>
       <c r="B3">
-        <v>4596.2085277523702</v>
+        <v>4026.5893066233298</v>
       </c>
       <c r="C3">
-        <v>201.81188295310599</v>
+        <v>420.58605747896502</v>
       </c>
       <c r="D3">
-        <v>858.36591061512502</v>
+        <v>207.44862101713801</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3">
-        <f>SUM(B2:B7)</f>
-        <v>27566.224031891143</v>
+        <f>SUM(B2:B8)</f>
+        <v>30791.334383876969</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1034.72705670696</v>
+        <v>130.985990719895</v>
       </c>
       <c r="B4">
-        <v>5043.2569091841897</v>
+        <v>4519.1382876939997</v>
       </c>
       <c r="C4">
-        <v>202.35881696503699</v>
+        <v>565.53755247275399</v>
       </c>
       <c r="D4">
-        <v>979.56341745980706</v>
+        <v>207.29050455277999</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4">
-        <f>SUM(C2:C7)</f>
-        <v>1012.059517968849</v>
+        <f>SUM(C2:C8)</f>
+        <v>3067.7270156992799</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>819.80010798871001</v>
+        <v>118.02037575704701</v>
       </c>
       <c r="B5">
-        <v>4307.1859454748401</v>
+        <v>4470.3357979390403</v>
       </c>
       <c r="C5">
-        <v>101.347560200796</v>
+        <v>414.82786250010003</v>
       </c>
       <c r="D5">
-        <v>832.52103047311198</v>
+        <v>198.70713506695401</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
       <c r="G5">
-        <f>SUM(D2:D7)</f>
-        <v>5396.3285419727999</v>
+        <f>SUM(D2:D8)</f>
+        <v>1394.3461414590729</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>906.27657875548596</v>
+        <v>107.239661784212</v>
       </c>
       <c r="B6">
-        <v>4358.4253665329697</v>
+        <v>4311.9424585981096</v>
       </c>
       <c r="C6">
-        <v>202.23048754127601</v>
+        <v>411.218941796921</v>
       </c>
       <c r="D6">
-        <v>898.32420775810203</v>
+        <v>187.618014724445</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>855.29490029908402</v>
+        <v>112.575994483196</v>
       </c>
       <c r="B7">
-        <v>4450.5955885862004</v>
+        <v>4410.1957437484598</v>
       </c>
       <c r="C7">
-        <v>101.68984464601201</v>
+        <v>416.01708281064401</v>
       </c>
       <c r="D7">
-        <v>863.39502783569606</v>
+        <v>191.71216042033399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>116.007175384262</v>
+      </c>
+      <c r="B8">
+        <v>4495.3377895145704</v>
+      </c>
+      <c r="C8">
+        <v>415.06188816830002</v>
+      </c>
+      <c r="D8">
+        <v>190.71204030016199</v>
       </c>
     </row>
   </sheetData>
